--- a/TonalPohualli.xlsx
+++ b/TonalPohualli.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Cipactli</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>https://www.google.com/search?rlz=1C1VDKB_esMX1064MX1064&amp;q=13+de+agosto+de+1521+Ce+Coatl+serpiente&amp;tbm=isch&amp;sa=X&amp;ved=2ahUKEwjFmOyG4oyAAxWjO0QIHWocDKMQ0pQJegQIBxAB&amp;biw=1600&amp;bih=732&amp;dpr=1#imgrc=v1ZRPv_hBDAUuM</t>
+  </si>
+  <si>
+    <t>https://tlacuiloazteca.wordpress.com/</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -850,6 +853,9 @@
       <c r="D9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="G9" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
@@ -1010,9 +1016,10 @@
     <hyperlink ref="G4" r:id="rId1"/>
     <hyperlink ref="G5" r:id="rId2"/>
     <hyperlink ref="G7" r:id="rId3" location="imgrc=v1ZRPv_hBDAUuM"/>
+    <hyperlink ref="G9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
